--- a/biology/Médecine/Maria_Cristina_Messa/Maria_Cristina_Messa.xlsx
+++ b/biology/Médecine/Maria_Cristina_Messa/Maria_Cristina_Messa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maria Cristina Messa, née le 8 octobre 1961 à Monza, est une médecin et universitaire italienne. 
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Cristina Messa naît à Monza, en Lombardie[1]. Elle fait ses études de médecine à l'université de Milan, et obtient son diplôme de médecin en 1986[2]. Elle fait une spécialité de médecine nucléaire en 1989[3].
-Elle est assistante de recherche à l'hôpital San Raffaele de Milan, puis est nommée professeure associée à l'université de Milan-Bicocca en 2001 et professeure ordinaire en 2013. Elle dirige l'unité de médecine nucléaire de l'hôpital San Gerardo de Monza de 2005 à 2012, et du centre de bio-imagerie moléculaire (Fondation Technomed) à l'université de Milan-Bicocca. Elle est directrice du département des sciences de la santé de l'université de Milan-Bicocca en 2012-2013[4].
-Elle est rectrice de l'université de Milan-Bicocca de 2013 à 2019[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Cristina Messa naît à Monza, en Lombardie. Elle fait ses études de médecine à l'université de Milan, et obtient son diplôme de médecin en 1986. Elle fait une spécialité de médecine nucléaire en 1989.
+Elle est assistante de recherche à l'hôpital San Raffaele de Milan, puis est nommée professeure associée à l'université de Milan-Bicocca en 2001 et professeure ordinaire en 2013. Elle dirige l'unité de médecine nucléaire de l'hôpital San Gerardo de Monza de 2005 à 2012, et du centre de bio-imagerie moléculaire (Fondation Technomed) à l'université de Milan-Bicocca. Elle est directrice du département des sciences de la santé de l'université de Milan-Bicocca en 2012-2013.
+Elle est rectrice de l'université de Milan-Bicocca de 2013 à 2019.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Cristina Messa est nommée ministre de l'Enseignement supérieur et de la Recherche le 13 février 2021[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Cristina Messa est nommée ministre de l'Enseignement supérieur et de la Recherche le 13 février 2021.
 </t>
         </is>
       </c>
